--- a/output/FreqDiscovCitptile0.9alpha0.05power0.7N1000/FreqDiscovCitptile0.9alpha0.05power0.7N1000N1000.xlsx
+++ b/output/FreqDiscovCitptile0.9alpha0.05power0.7N1000/FreqDiscovCitptile0.9alpha0.05power0.7N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqDiscovCitptile0.9alpha0.05power0.7N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA1548-AD81-4337-B2C3-9EED8E8089AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A08C6A-467E-449C-B996-27AA67F33712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3105" windowWidth="21600" windowHeight="12735" xr2:uid="{8DAC7217-2429-41A5-9F7D-A32E077FED79}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{1D1082BC-7F47-4B62-A3D1-16BA3CFDDAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00103AD5-B30B-4A29-9B07-7EAFA9E6C62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B75404-C4FA-422C-94E7-726CCD8E1A94}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.0963394504462231E-2</v>
+        <v>5.0567559014050814E-2</v>
       </c>
       <c r="D2">
-        <v>0.70731230751597973</v>
+        <v>0.70248343432526783</v>
       </c>
       <c r="E2">
-        <v>9.0549999999999997</v>
+        <v>8.9589999999999996</v>
       </c>
       <c r="F2">
-        <v>111.071</v>
+        <v>110.84099999999999</v>
       </c>
       <c r="G2">
-        <v>4.7759999999999998</v>
+        <v>4.6470000000000002</v>
       </c>
       <c r="H2">
-        <v>0.64200000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="I2">
-        <v>0.64800000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="J2">
-        <v>5.1031614982170015E-2</v>
+        <v>4.7115123323582579E-2</v>
       </c>
       <c r="K2">
-        <v>0.70670185249038753</v>
+        <v>0.70859751443757435</v>
       </c>
       <c r="L2">
-        <v>11.071</v>
+        <v>10.840999999999999</v>
       </c>
       <c r="M2">
-        <v>111.071</v>
+        <v>110.84099999999999</v>
       </c>
       <c r="N2">
-        <v>0.65300000000000002</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="O2">
-        <v>0.66300000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.9269964824860693E-2</v>
+        <v>4.9159575299531917E-2</v>
       </c>
       <c r="D3">
-        <v>0.70225898175244672</v>
+        <v>0.71055916053893808</v>
       </c>
       <c r="E3">
-        <v>9.0419999999999998</v>
+        <v>8.7889999999999997</v>
       </c>
       <c r="F3">
-        <v>110.846</v>
+        <v>110.767</v>
       </c>
       <c r="G3">
-        <v>4.7729999999999997</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="H3">
-        <v>0.48199999999999998</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="I3">
-        <v>0.46899999999999997</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="J3">
-        <v>5.2554744525547453E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="K3">
-        <v>0.73770491803278693</v>
+        <v>0.69629229661627068</v>
       </c>
       <c r="L3">
-        <v>10.846</v>
+        <v>10.766999999999999</v>
       </c>
       <c r="M3">
-        <v>101.084</v>
+        <v>101.10899999999999</v>
       </c>
       <c r="N3">
-        <v>0.52400000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="O3">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.0543177986252907E-2</v>
+        <v>4.9916959670926173E-2</v>
       </c>
       <c r="D4">
-        <v>0.70026060230494813</v>
+        <v>0.71159313102633981</v>
       </c>
       <c r="E4">
-        <v>9.0890000000000004</v>
+        <v>8.9130000000000003</v>
       </c>
       <c r="F4">
-        <v>110.991</v>
+        <v>110.89</v>
       </c>
       <c r="G4">
-        <v>4.7699999999999996</v>
+        <v>4.7220000000000004</v>
       </c>
       <c r="H4">
-        <v>0.63400000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I4">
-        <v>0.61</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="J4">
-        <v>5.5436337625178828E-2</v>
+        <v>5.1434223541048471E-2</v>
       </c>
       <c r="K4">
-        <v>0.72764705882352954</v>
+        <v>0.70687086092715246</v>
       </c>
       <c r="L4">
-        <v>10.991</v>
+        <v>10.89</v>
       </c>
       <c r="M4">
-        <v>101.598</v>
+        <v>101.55200000000001</v>
       </c>
       <c r="N4">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="O4">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.0745548963812545E-2</v>
+        <v>4.9483184691018076E-2</v>
       </c>
       <c r="D5">
-        <v>0.71633160614928904</v>
+        <v>0.68982249388181238</v>
       </c>
       <c r="E5">
-        <v>9.0869999999999997</v>
+        <v>9.0890000000000004</v>
       </c>
       <c r="F5">
-        <v>111.117</v>
+        <v>110.82899999999999</v>
       </c>
       <c r="G5">
-        <v>4.8390000000000004</v>
+        <v>4.6150000000000002</v>
       </c>
       <c r="H5">
-        <v>1.0720000000000001</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="I5">
-        <v>1.054</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="J5">
-        <v>5.7523148148148157E-2</v>
+        <v>4.1843470061291833E-2</v>
       </c>
       <c r="K5">
-        <v>0.70737312030075228</v>
+        <v>0.71286218190980133</v>
       </c>
       <c r="L5">
-        <v>11.117000000000001</v>
+        <v>10.829000000000001</v>
       </c>
       <c r="M5">
-        <v>102.622</v>
+        <v>102.51300000000001</v>
       </c>
       <c r="N5">
-        <v>1.173</v>
+        <v>1.107</v>
       </c>
       <c r="O5">
-        <v>1.1080000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0640000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.105730323795198E-2</v>
+        <v>7.898967299333344E-2</v>
       </c>
       <c r="D6">
-        <v>0.77559967476171576</v>
+        <v>0.81753187541145989</v>
       </c>
       <c r="E6">
-        <v>8.9529999999999994</v>
+        <v>9.0079999999999991</v>
       </c>
       <c r="F6">
-        <v>113.464</v>
+        <v>114.509</v>
       </c>
       <c r="G6">
-        <v>5.8310000000000004</v>
+        <v>6.5650000000000004</v>
       </c>
       <c r="H6">
-        <v>0.86199999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="I6">
-        <v>0.78400000000000003</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J6">
-        <v>7.1501030452886222E-2</v>
+        <v>7.7926375148597515E-2</v>
       </c>
       <c r="K6">
-        <v>0.77588548691212866</v>
+        <v>0.81460792809634952</v>
       </c>
       <c r="L6">
-        <v>13.464</v>
+        <v>14.509</v>
       </c>
       <c r="M6">
-        <v>113.464</v>
+        <v>114.509</v>
       </c>
       <c r="N6">
-        <v>0.872</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="O6">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.0380561770953573E-2</v>
+        <v>7.8285461114780505E-2</v>
       </c>
       <c r="D7">
-        <v>0.77788399828357702</v>
+        <v>0.81260606556992687</v>
       </c>
       <c r="E7">
-        <v>9.0030000000000001</v>
+        <v>8.9930000000000003</v>
       </c>
       <c r="F7">
-        <v>113.316</v>
+        <v>114.47499999999999</v>
       </c>
       <c r="G7">
-        <v>5.8369999999999997</v>
+        <v>6.5810000000000004</v>
       </c>
       <c r="H7">
-        <v>0.63100000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="I7">
-        <v>0.53700000000000003</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="J7">
-        <v>8.4438549955791337E-2</v>
+        <v>7.2329650092081046E-2</v>
       </c>
       <c r="K7">
-        <v>0.77622498274672203</v>
+        <v>0.82714904143475587</v>
       </c>
       <c r="L7">
-        <v>13.316000000000001</v>
+        <v>14.475</v>
       </c>
       <c r="M7">
-        <v>101.319</v>
+        <v>101.46599999999999</v>
       </c>
       <c r="N7">
-        <v>0.6</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="O7">
-        <v>0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>7.2093260842803791E-2</v>
+        <v>7.9057464508631978E-2</v>
       </c>
       <c r="D8">
-        <v>0.78286877034953573</v>
+        <v>0.81532207141326518</v>
       </c>
       <c r="E8">
-        <v>8.968</v>
+        <v>9.0619999999999994</v>
       </c>
       <c r="F8">
-        <v>113.59699999999999</v>
+        <v>114.61</v>
       </c>
       <c r="G8">
-        <v>6.024</v>
+        <v>6.6340000000000003</v>
       </c>
       <c r="H8">
-        <v>0.88500000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I8">
-        <v>0.82099999999999995</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="J8">
-        <v>6.0585885486018648E-2</v>
+        <v>8.5708227311280749E-2</v>
       </c>
       <c r="K8">
-        <v>0.79148994018488339</v>
+        <v>0.81496598639455797</v>
       </c>
       <c r="L8">
-        <v>13.597</v>
+        <v>14.61</v>
       </c>
       <c r="M8">
-        <v>101.956</v>
+        <v>102.154</v>
       </c>
       <c r="N8">
-        <v>0.85199999999999998</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="O8">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.1229628246591944E-2</v>
+        <v>8.0905108209679708E-2</v>
       </c>
       <c r="D9">
-        <v>0.78250930313263656</v>
+        <v>0.8157379095051569</v>
       </c>
       <c r="E9">
-        <v>8.8979999999999997</v>
+        <v>8.8810000000000002</v>
       </c>
       <c r="F9">
-        <v>113.39400000000001</v>
+        <v>114.51900000000001</v>
       </c>
       <c r="G9">
-        <v>5.8239999999999998</v>
+        <v>6.3520000000000003</v>
       </c>
       <c r="H9">
-        <v>1.3089999999999999</v>
+        <v>1.431</v>
       </c>
       <c r="I9">
-        <v>1.1839999999999999</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="J9">
-        <v>6.7162698412698438E-2</v>
+        <v>8.4822119102861582E-2</v>
       </c>
       <c r="K9">
-        <v>0.78592714224898153</v>
+        <v>0.81077966307851368</v>
       </c>
       <c r="L9">
-        <v>13.394</v>
+        <v>14.519</v>
       </c>
       <c r="M9">
-        <v>103.16800000000001</v>
+        <v>103.479</v>
       </c>
       <c r="N9">
-        <v>1.409</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="O9">
-        <v>1.304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.10006379109945425</v>
+        <v>0.10697216953155017</v>
       </c>
       <c r="D10">
-        <v>0.91651159909541557</v>
+        <v>0.94507438144044464</v>
       </c>
       <c r="E10">
-        <v>8.9849999999999994</v>
+        <v>9.0229999999999997</v>
       </c>
       <c r="F10">
-        <v>117.50700000000001</v>
+        <v>118.373</v>
       </c>
       <c r="G10">
-        <v>8.6519999999999992</v>
+        <v>9.266</v>
       </c>
       <c r="H10">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="I10">
-        <v>1.137</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J10">
-        <v>9.6151325407478921E-2</v>
+        <v>0.10299249886232019</v>
       </c>
       <c r="K10">
-        <v>0.91091340394734355</v>
+        <v>0.9503295171952838</v>
       </c>
       <c r="L10">
-        <v>17.507000000000001</v>
+        <v>18.373000000000001</v>
       </c>
       <c r="M10">
-        <v>117.50700000000001</v>
+        <v>118.373</v>
       </c>
       <c r="N10">
-        <v>1.2310000000000001</v>
+        <v>1.3240000000000001</v>
       </c>
       <c r="O10">
-        <v>1.075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1140000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.10140534299631462</v>
+        <v>0.10687000853784417</v>
       </c>
       <c r="D11">
-        <v>0.91628501271817375</v>
+        <v>0.94718807958454942</v>
       </c>
       <c r="E11">
-        <v>8.9779999999999998</v>
+        <v>8.8719999999999999</v>
       </c>
       <c r="F11">
-        <v>117.512</v>
+        <v>118.179</v>
       </c>
       <c r="G11">
-        <v>8.5500000000000007</v>
+        <v>8.9819999999999993</v>
       </c>
       <c r="H11">
-        <v>0.84299999999999997</v>
+        <v>0.86</v>
       </c>
       <c r="I11">
-        <v>0.72399999999999998</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="J11">
-        <v>8.7554395126196727E-2</v>
+        <v>0.10425170068027213</v>
       </c>
       <c r="K11">
-        <v>0.94229885057471263</v>
+        <v>0.94156268568033274</v>
       </c>
       <c r="L11">
-        <v>17.512</v>
+        <v>18.178999999999998</v>
       </c>
       <c r="M11">
-        <v>101.753</v>
+        <v>101.845</v>
       </c>
       <c r="N11">
-        <v>0.873</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="O11">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.10137657406742195</v>
+        <v>0.10625277276163289</v>
       </c>
       <c r="D12">
-        <v>0.90819562114804964</v>
+        <v>0.94289118043024545</v>
       </c>
       <c r="E12">
-        <v>8.9719999999999995</v>
+        <v>9.0250000000000004</v>
       </c>
       <c r="F12">
-        <v>117.499</v>
+        <v>118.173</v>
       </c>
       <c r="G12">
-        <v>8.5280000000000005</v>
+        <v>9.0429999999999993</v>
       </c>
       <c r="H12">
-        <v>1.196</v>
+        <v>1.216</v>
       </c>
       <c r="I12">
-        <v>1.022</v>
+        <v>1.135</v>
       </c>
       <c r="J12">
-        <v>9.3985419198055933E-2</v>
+        <v>0.10705976734857602</v>
       </c>
       <c r="K12">
-        <v>0.89894452626411392</v>
+        <v>0.94416785206258891</v>
       </c>
       <c r="L12">
-        <v>17.498999999999999</v>
+        <v>18.172999999999998</v>
       </c>
       <c r="M12">
-        <v>102.46</v>
+        <v>102.634</v>
       </c>
       <c r="N12">
-        <v>1.1719999999999999</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="O12">
-        <v>1.044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1850000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.10047910899454976</v>
+        <v>0.10784025113499998</v>
       </c>
       <c r="D13">
-        <v>0.91782514707454455</v>
+        <v>0.94435029198871312</v>
       </c>
       <c r="E13">
-        <v>9.08</v>
+        <v>8.9459999999999997</v>
       </c>
       <c r="F13">
-        <v>117.39400000000001</v>
+        <v>118.18600000000001</v>
       </c>
       <c r="G13">
-        <v>8.4689999999999994</v>
+        <v>8.9109999999999996</v>
       </c>
       <c r="H13">
-        <v>2.0089999999999999</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="I13">
-        <v>1.9710000000000001</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="J13">
-        <v>0.1219157057441811</v>
+        <v>0.10838803792851931</v>
       </c>
       <c r="K13">
-        <v>0.92020968291851291</v>
+        <v>0.94881960039154711</v>
       </c>
       <c r="L13">
-        <v>17.393999999999998</v>
+        <v>18.186</v>
       </c>
       <c r="M13">
-        <v>104.059</v>
+        <v>104.348</v>
       </c>
       <c r="N13">
-        <v>2.0329999999999999</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="O13">
-        <v>1.794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11638771809539612</v>
+        <v>0.12140941867277649</v>
       </c>
       <c r="D14">
-        <v>0.95930333240088206</v>
+        <v>0.98189903031633718</v>
       </c>
       <c r="E14">
-        <v>8.8819999999999997</v>
+        <v>9.0850000000000009</v>
       </c>
       <c r="F14">
-        <v>119.139</v>
+        <v>119.986</v>
       </c>
       <c r="G14">
-        <v>9.3859999999999992</v>
+        <v>10.081</v>
       </c>
       <c r="H14">
-        <v>1.369</v>
+        <v>1.3740000000000001</v>
       </c>
       <c r="I14">
-        <v>1.1599999999999999</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="J14">
-        <v>0.11267398055441388</v>
+        <v>0.12237442070743189</v>
       </c>
       <c r="K14">
-        <v>0.95634608184064007</v>
+        <v>0.98106687151041316</v>
       </c>
       <c r="L14">
-        <v>19.138999999999999</v>
+        <v>19.986000000000001</v>
       </c>
       <c r="M14">
-        <v>119.139</v>
+        <v>119.986</v>
       </c>
       <c r="N14">
-        <v>1.2629999999999999</v>
+        <v>1.454</v>
       </c>
       <c r="O14">
-        <v>1.2090000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3240000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.11591621506237125</v>
+        <v>0.12019799437885835</v>
       </c>
       <c r="D15">
-        <v>0.96133676096789122</v>
+        <v>0.98157626072781312</v>
       </c>
       <c r="E15">
-        <v>9.1129999999999995</v>
+        <v>9.0719999999999992</v>
       </c>
       <c r="F15">
-        <v>119.13800000000001</v>
+        <v>119.89400000000001</v>
       </c>
       <c r="G15">
-        <v>9.4489999999999998</v>
+        <v>10.010999999999999</v>
       </c>
       <c r="H15">
-        <v>0.97199999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="I15">
-        <v>0.84899999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="J15">
-        <v>9.0575010808473855E-2</v>
+        <v>0.14801242236024839</v>
       </c>
       <c r="K15">
-        <v>0.93757110352673501</v>
+        <v>0.9805797101449274</v>
       </c>
       <c r="L15">
-        <v>19.138000000000002</v>
+        <v>19.893999999999998</v>
       </c>
       <c r="M15">
-        <v>101.955</v>
+        <v>102.01600000000001</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="O15">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11856300043127539</v>
+        <v>0.12100192700655259</v>
       </c>
       <c r="D16">
-        <v>0.95684276450386774</v>
+        <v>0.98109534922204389</v>
       </c>
       <c r="E16">
-        <v>9.0299999999999994</v>
+        <v>9.0640000000000001</v>
       </c>
       <c r="F16">
-        <v>119.5</v>
+        <v>119.80800000000001</v>
       </c>
       <c r="G16">
-        <v>9.5939999999999994</v>
+        <v>9.9670000000000005</v>
       </c>
       <c r="H16">
-        <v>1.359</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="I16">
-        <v>1.196</v>
+        <v>1.181</v>
       </c>
       <c r="J16">
-        <v>9.124900556881467E-2</v>
+        <v>0.12946709344114987</v>
       </c>
       <c r="K16">
-        <v>0.95172821969696952</v>
+        <v>0.98448699067255752</v>
       </c>
       <c r="L16">
-        <v>19.5</v>
+        <v>19.808</v>
       </c>
       <c r="M16">
-        <v>102.883</v>
+        <v>102.812</v>
       </c>
       <c r="N16">
-        <v>1.3919999999999999</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="O16">
-        <v>1.2390000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2210000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.11553448292463919</v>
+        <v>0.12099112707036931</v>
       </c>
       <c r="D17">
-        <v>0.95656385990470838</v>
+        <v>0.98109523332261606</v>
       </c>
       <c r="E17">
-        <v>8.984</v>
+        <v>8.9350000000000005</v>
       </c>
       <c r="F17">
-        <v>119.139</v>
+        <v>119.782</v>
       </c>
       <c r="G17">
-        <v>9.4209999999999994</v>
+        <v>9.89</v>
       </c>
       <c r="H17">
-        <v>2.1190000000000002</v>
+        <v>2.375</v>
       </c>
       <c r="I17">
-        <v>1.7989999999999999</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="J17">
-        <v>0.10447753477069439</v>
+        <v>0.1162440349274038</v>
       </c>
       <c r="K17">
-        <v>0.94960681171114925</v>
+        <v>0.97184179456906683</v>
       </c>
       <c r="L17">
-        <v>19.138999999999999</v>
+        <v>19.782</v>
       </c>
       <c r="M17">
-        <v>104.42700000000001</v>
+        <v>104.723</v>
       </c>
       <c r="N17">
-        <v>2.1800000000000002</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="O17">
-        <v>1.9339999999999999</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F47C45-C79B-4FFE-BB17-834AC543670B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEF6A17-DEFF-47BA-B27C-1A4EC0A435A2}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
